--- a/tables/crosstab/crosstab_safety_time/monitoring VS frequently.xlsx
+++ b/tables/crosstab/crosstab_safety_time/monitoring VS frequently.xlsx
@@ -462,28 +462,28 @@
         <v>45</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G2">
-        <v>11.27</v>
+        <v>11.5</v>
       </c>
       <c r="H2">
-        <v>11.03</v>
+        <v>11.25</v>
       </c>
       <c r="I2">
-        <v>17.65</v>
+        <v>17.5</v>
       </c>
       <c r="J2">
-        <v>4.17</v>
+        <v>3.5</v>
       </c>
       <c r="K2">
-        <v>44.12</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -491,34 +491,34 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>69</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>13</v>
       </c>
       <c r="F3">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G3">
         <v>12.75</v>
       </c>
       <c r="H3">
-        <v>16.91</v>
+        <v>17.25</v>
       </c>
       <c r="I3">
-        <v>23.04</v>
+        <v>23</v>
       </c>
       <c r="J3">
-        <v>3.19</v>
+        <v>3.25</v>
       </c>
       <c r="K3">
-        <v>55.88</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -526,31 +526,31 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>114</v>
       </c>
       <c r="D4">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G4">
-        <v>24.02</v>
+        <v>24.25</v>
       </c>
       <c r="H4">
-        <v>27.94</v>
+        <v>28.5</v>
       </c>
       <c r="I4">
-        <v>40.69</v>
+        <v>40.5</v>
       </c>
       <c r="J4">
-        <v>7.35</v>
+        <v>6.75</v>
       </c>
       <c r="K4">
         <v>100</v>
